--- a/王易珅试剂耗材.xlsx
+++ b/王易珅试剂耗材.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>试剂耗材名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>30%丙烯酰胺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州威佳陈爽</t>
+  </si>
+  <si>
+    <t>广州威佳陈爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +463,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -545,6 +560,12 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -552,6 +573,12 @@
       </c>
       <c r="B6" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/王易珅试剂耗材.xlsx
+++ b/王易珅试剂耗材.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>试剂耗材名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,21 +99,6 @@
   </si>
   <si>
     <t>30%丙烯酰胺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州威佳陈爽</t>
-  </si>
-  <si>
-    <t>广州威佳陈爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.04.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.04.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +448,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,12 +545,6 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -573,12 +552,6 @@
       </c>
       <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/王易珅试剂耗材.xlsx
+++ b/王易珅试剂耗材.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>试剂耗材名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>30%丙烯酰胺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -545,6 +549,9 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -552,6 +559,9 @@
       </c>
       <c r="B6" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
